--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECEUWO\Teaching\Fall2017\SE3352A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -44,73 +44,94 @@
     <t>P: Primary   S: Support</t>
   </si>
   <si>
-    <t>Team Member 2</t>
-  </si>
-  <si>
-    <t>Team Member 3</t>
-  </si>
-  <si>
-    <t>Team Member 4</t>
-  </si>
-  <si>
-    <t>Team Member 5</t>
-  </si>
-  <si>
-    <t>Team Member 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Name: </t>
-  </si>
-  <si>
-    <t>Project Name:</t>
-  </si>
-  <si>
-    <t>&lt;Add rows as necessary&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Enter task name, section number, or sib section number as it appears in the SRS template breakdown here&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Example)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SRS - Section 3.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Team Member 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Replace it by the correct team member name</t>
-    </r>
+    <t>Yousef Ouda</t>
+  </si>
+  <si>
+    <t>Mustafa Dawoud</t>
+  </si>
+  <si>
+    <t>Jeffrey Kim</t>
+  </si>
+  <si>
+    <t>Omar Chahbar</t>
+  </si>
+  <si>
+    <t>Ramzi Abdulahi</t>
+  </si>
+  <si>
+    <t>Brandon DiCicco</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Section 3.1</t>
+  </si>
+  <si>
+    <t>Section 2.1.4</t>
+  </si>
+  <si>
+    <t>Section 2.1.1</t>
+  </si>
+  <si>
+    <t>Section 2.1.2</t>
+  </si>
+  <si>
+    <t>Section 2.1.3</t>
+  </si>
+  <si>
+    <t>Section 2.2</t>
+  </si>
+  <si>
+    <t>Section 3.2</t>
+  </si>
+  <si>
+    <t>Section 3.3</t>
+  </si>
+  <si>
+    <t>Section 3.4</t>
+  </si>
+  <si>
+    <t>Section 3.5</t>
+  </si>
+  <si>
+    <t>Section 3.6</t>
+  </si>
+  <si>
+    <t>Section 3.7</t>
+  </si>
+  <si>
+    <t>Section 3.8</t>
+  </si>
+  <si>
+    <t>Section 3.9</t>
+  </si>
+  <si>
+    <t>Section 3.10</t>
+  </si>
+  <si>
+    <t>Section 3.11</t>
+  </si>
+  <si>
+    <t>Section 3.12</t>
+  </si>
+  <si>
+    <t>Section 3.13</t>
+  </si>
+  <si>
+    <t>Team Name: Brigade</t>
+  </si>
+  <si>
+    <t>Project Name: Self Start</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,15 +154,13 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -154,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -178,51 +197,243 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,199 +748,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="47.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="23.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="8" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="H5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -375,9 +375,6 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,6 +431,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -776,385 +776,385 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>15</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>16</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
+      <c r="C21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="C24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECEUWO\Teaching\Fall2017\SE3352A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStart\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -44,73 +44,100 @@
     <t>P: Primary   S: Support</t>
   </si>
   <si>
-    <t>Team Member 2</t>
-  </si>
-  <si>
-    <t>Team Member 3</t>
-  </si>
-  <si>
-    <t>Team Member 4</t>
-  </si>
-  <si>
-    <t>Team Member 5</t>
-  </si>
-  <si>
-    <t>Team Member 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Name: </t>
-  </si>
-  <si>
-    <t>Project Name:</t>
-  </si>
-  <si>
-    <t>&lt;Add rows as necessary&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Enter task name, section number, or sib section number as it appears in the SRS template breakdown here&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Example)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SRS - Section 3.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Team Member 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Replace it by the correct team member name</t>
-    </r>
+    <t>Team Name: Brigade</t>
+  </si>
+  <si>
+    <t>Project Name: Self Start</t>
+  </si>
+  <si>
+    <t>Yousef Ouda</t>
+  </si>
+  <si>
+    <t>Mustafa Dawoud</t>
+  </si>
+  <si>
+    <t>Jeffrey Kim</t>
+  </si>
+  <si>
+    <t>Omar Chahbar</t>
+  </si>
+  <si>
+    <t>Ramzi Abdulahi</t>
+  </si>
+  <si>
+    <t>Brandon DiCicco</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Section 2.1.4</t>
+  </si>
+  <si>
+    <t>Section 2.1.1</t>
+  </si>
+  <si>
+    <t>Section 2.1.2</t>
+  </si>
+  <si>
+    <t>Section 2.1.3</t>
+  </si>
+  <si>
+    <t>Section 2.2</t>
+  </si>
+  <si>
+    <t>Section 3.1</t>
+  </si>
+  <si>
+    <t>Section 3.2</t>
+  </si>
+  <si>
+    <t>Section 3.3</t>
+  </si>
+  <si>
+    <t>Section 3.4</t>
+  </si>
+  <si>
+    <t>Section 3.5</t>
+  </si>
+  <si>
+    <t>Section 3.6</t>
+  </si>
+  <si>
+    <t>Section 3.7</t>
+  </si>
+  <si>
+    <t>Section 3.8</t>
+  </si>
+  <si>
+    <t>Section 3.9</t>
+  </si>
+  <si>
+    <t>Section 3.10</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Section 3.11</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Section 3.12</t>
+  </si>
+  <si>
+    <t>Section 3.13</t>
+  </si>
+  <si>
+    <t>Feature-UseCase-Actor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,15 +160,13 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -154,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -178,26 +203,205 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -205,25 +409,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,198 +794,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="47.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="23.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="8" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="17">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="B20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>17</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="Q22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="20">
+        <v>19</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="24">
+        <v>20</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Brigade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStart\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -126,12 +126,15 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Feature-UseCase-Actor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -242,40 +245,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -366,13 +339,74 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,55 +420,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,87 +791,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="1"/>
-    <col min="2" max="2" width="23.05078125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.89453125" style="1"/>
+    <col min="1" max="1" width="8.90625" style="22"/>
+    <col min="2" max="2" width="23.08984375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="23" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="17" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -853,8 +931,9 @@
       <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -871,8 +950,9 @@
         <v>4</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -891,8 +971,9 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -907,8 +988,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -925,8 +1007,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -943,8 +1026,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -963,8 +1047,9 @@
       <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -981,8 +1066,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -999,8 +1085,9 @@
         <v>3</v>
       </c>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1015,146 +1102,193 @@
         <v>3</v>
       </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
+      <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="9">
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="23">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="13"/>
+      <c r="C24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Section 3.11</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>Section 3.12</t>
@@ -412,9 +409,6 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -480,6 +474,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -821,415 +818,412 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>4</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>6</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="C14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="C17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19" t="s">
+      <c r="C21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
         <v>17</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="Q22" s="1" t="s">
+      <c r="C22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
-        <v>18</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>19</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="20">
-        <v>19</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23">
+        <v>20</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24">
-        <v>20</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="27"/>
+      <c r="C25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -460,9 +460,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,6 +475,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,20 +794,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="22"/>
-    <col min="2" max="2" width="23.08984375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="22"/>
+    <col min="1" max="1" width="8.90625" style="21"/>
+    <col min="2" max="2" width="23.08984375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -837,11 +837,11 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1037,13 +1037,13 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1234,22 +1234,22 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>19</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="26"/>
+      <c r="C24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="25"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1274,10 +1274,10 @@
       <c r="G25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="28"/>
+      <c r="H25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>

--- a/Responsibility Matrix.xlsx
+++ b/Responsibility Matrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStart\Brigade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Brigade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>Responsibility Matrix</t>
   </si>
@@ -129,12 +129,30 @@
   </si>
   <si>
     <t>Feature-UseCase-Actor</t>
+  </si>
+  <si>
+    <t>Use case diagram</t>
+  </si>
+  <si>
+    <t>class descriptions</t>
+  </si>
+  <si>
+    <t>user and patient attributes</t>
+  </si>
+  <si>
+    <t>admin - city 10 attributes</t>
+  </si>
+  <si>
+    <t>treatment - rehab attributes</t>
+  </si>
+  <si>
+    <t>exercise attributes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -251,10 +269,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -263,7 +279,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -273,10 +289,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -286,31 +302,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -320,77 +377,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,11 +392,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,7 +421,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,53 +430,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,26 +791,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="21"/>
-    <col min="2" max="2" width="23.08984375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="21"/>
+    <col min="1" max="1" width="8.89453125" style="19"/>
+    <col min="2" max="2" width="28.15625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7890625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.7890625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.47265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.47265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89453125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -836,12 +836,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -851,7 +851,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -862,51 +862,51 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1104,191 +1104,299 @@
       <c r="H16" s="6"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="22">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="20">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="25"/>
+      <c r="C24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="C25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>25</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>26</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
